--- a/Заказы.xlsx
+++ b/Заказы.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -704,10 +704,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>79936228575</t>
-        </is>
+      <c r="A8" t="n">
+        <v>79936228575</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -740,6 +738,920 @@
       <c r="H8" t="inlineStr">
         <is>
           <t>Александр</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>79936228575</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>11.02.2025</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Компот</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>50</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Не оплачено</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Вторник</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Рязанский проспект 8</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Александр</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>79936228575</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>11.02.2025</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Комплексный обед</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>400</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Не оплачено</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Вторник</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Рязанский проспект 8</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Александр</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>79936228575</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>11.02.2025</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Комплексный обед</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>400</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Александр</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Вторник</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Рязанский проспект 8</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Александр</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>79936228575</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>11.02.2025</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Комплексный обед</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>400</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Александр</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Вторник</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Рязанский проспект 8</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Александр</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>79936228575</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>11.02.2025</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Комплексный обед</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>400</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Александр</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Вторник</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Рязанский проспект 8</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Александр</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>79936228575</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>11.02.2025</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Комплексный обед</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>400</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Наличными</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Вторник</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>БЦ Румянцево</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>АА</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>79936228575</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>11.02.2025</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Морс</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>50</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Наличными</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Вторник</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>БЦ Румянцево</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>АА</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>79936228575</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>11.02.2025</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Комплексный обед</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>400</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Наличными</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Вторник</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>БЦ Румянцево</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>АА</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>79936228575</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>11.02.2025</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Комплексный обед</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>400</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Наличными</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Вторник</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>БЦ Румянцево</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>АА</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>79936228575</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>11.02.2025</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Комплексный обед</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>400</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Картой</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Вторник</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>БЦ Румянцево</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>АА</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>79936228575</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>11.02.2025</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Цезарь с сёмгой</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>400</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Картой</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Вторник</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>БЦ Румянцево</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>АА</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>79111289713</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>11.02.2025</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Комплексный обед</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>400</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Наличными</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Вторник</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Пушкина 18</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Царёва Ника</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>79111289713</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>11.02.2025</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Морс</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>50</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Наличными</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Вторник</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Пушкина 18</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Царёва Ника</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>79111289713</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>11.02.2025</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Компот</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>50</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Наличными</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Вторник</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Пушкина 18</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Царёва Ника</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>79111289713</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>11.02.2025</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Цезарь с курицей</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>400</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Наличными</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Вторник</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Пушкина 18</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Царёва Ника</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>79111289713</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>11.02.2025</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Цезарь с курицей</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>400</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Наличными</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Вторник</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Пушкина 18</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Царёва Ника</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>79111289713</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>11.02.2025</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Цезарь с сёмгой</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>400</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Наличными</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Вторник</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Пушкина 18</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Царёва Ника</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>79111289713</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>12.02.2025</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Морс</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>50</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Картой</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Среда</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Пушкина 18</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Царёва Ника</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>79936228575</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>11.02.2025</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Морс</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>50</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Картой</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Вторник</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>БЦ Румянцево</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Александр Чуев</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>79936228575</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>11.02.2025</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Морс</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>50</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Картой</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Вторник</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>БЦ Румянцево</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Александр Чуев</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>79936228575</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>11.02.2025</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Морс</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>50</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Картой</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Вторник</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>БЦ Румянцево</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Александр Чуев</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>79936228575</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>11.02.2025</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Морс</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>50</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Картой</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Вторник</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>БЦ Румянцево</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Александр Чуев</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>79936228575</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>11.02.2025</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Морс</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>50</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Картой</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Вторник</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>БЦ Румянцево</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Александр Чуев</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>79936228575</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>11.02.2025</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Цезарь с сёмгой</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>400</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Картой</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Вторник</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>БЦ Румянцево</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Александр Чуев</t>
         </is>
       </c>
     </row>

--- a/Заказы.xlsx
+++ b/Заказы.xlsx
@@ -1,96 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ЭтаКнига"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMokrushin\Desktop\Обработки\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12990"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12990" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
   <pivotCaches>
     <pivotCache cacheId="64" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
-  <si>
-    <t>Номер телефона</t>
-  </si>
-  <si>
-    <t>Дата</t>
-  </si>
-  <si>
-    <t>Обед</t>
-  </si>
-  <si>
-    <t>Цена</t>
-  </si>
-  <si>
-    <t>Статус оплаты</t>
-  </si>
-  <si>
-    <t>День недели</t>
-  </si>
-  <si>
-    <t>Адрес доставки</t>
-  </si>
-  <si>
-    <t>Имя заказчика</t>
-  </si>
-  <si>
-    <t>Названия столбцов</t>
-  </si>
-  <si>
-    <t>Общий итог</t>
-  </si>
-  <si>
-    <t>Названия строк</t>
-  </si>
-  <si>
-    <t>Количество по полю Цена</t>
-  </si>
-  <si>
-    <t>(Все)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
       <sz val="11"/>
-      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -113,102 +68,165 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="1" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Мокрушин Сергей  Романович" refreshedDate="45694.645689351855" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="5">
+<pivotCacheDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" refreshedBy="Мокрушин Сергей  Романович" refreshedDate="45694.64568935186" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="5" r:id="rId1">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H1048576" sheet="Sheet1"/>
   </cacheSource>
   <cacheFields count="8">
-    <cacheField name="Номер телефона" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="79778690681" maxValue="79778690681" count="2">
+    <cacheField name="Номер телефона" uniqueList="1" numFmtId="0" sqlType="0" hierarchy="0" level="0" databaseField="1">
+      <sharedItems count="2" containsBlank="1" containsInteger="1" containsNonDate="0" containsNumber="1" containsString="0" minValue="79778690681" maxValue="79778690681">
         <m/>
         <n v="79778690681" u="1"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Дата" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsBlank="1" containsMixedTypes="1" minDate="2025-02-08T00:00:00" maxDate="2025-02-10T00:00:00" count="4">
+    <cacheField name="Дата" uniqueList="1" numFmtId="0" sqlType="0" hierarchy="0" level="0" databaseField="1">
+      <sharedItems count="4" containsBlank="1" containsDate="1" containsMixedTypes="1" containsNonDate="0" minDate="2025-02-08T00:00:00" maxDate="2025-02-10T00:00:00">
         <m/>
         <d v="2025-02-09T00:00:00" u="1"/>
         <s v="07.02.2025" u="1"/>
         <d v="2025-02-08T00:00:00" u="1"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Обед" numFmtId="0">
-      <sharedItems containsNonDate="0" containsBlank="1" count="4">
+    <cacheField name="Обед" uniqueList="1" numFmtId="0" sqlType="0" hierarchy="0" level="0" databaseField="1">
+      <sharedItems count="4" containsBlank="1" containsNonDate="0">
         <m/>
         <s v="Морс" u="1"/>
         <s v="Комплексный обед" u="1"/>
         <s v="Цезарь с курицей" u="1"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Цена" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    <cacheField name="Цена" uniqueList="1" numFmtId="0" sqlType="0" hierarchy="0" level="0" databaseField="1">
+      <sharedItems count="0" containsBlank="1" containsNonDate="0" containsString="0"/>
     </cacheField>
-    <cacheField name="Статус оплаты" numFmtId="0">
-      <sharedItems containsNonDate="0" containsBlank="1" count="2">
+    <cacheField name="Статус оплаты" uniqueList="1" numFmtId="0" sqlType="0" hierarchy="0" level="0" databaseField="1">
+      <sharedItems count="2" containsBlank="1" containsNonDate="0">
         <m/>
         <s v="Не оплачено" u="1"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="День недели" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    <cacheField name="День недели" uniqueList="1" numFmtId="0" sqlType="0" hierarchy="0" level="0" databaseField="1">
+      <sharedItems count="0" containsBlank="1" containsNonDate="0" containsString="0"/>
     </cacheField>
-    <cacheField name="Адрес доставки" numFmtId="0">
-      <sharedItems containsNonDate="0" containsBlank="1" count="2">
+    <cacheField name="Адрес доставки" uniqueList="1" numFmtId="0" sqlType="0" hierarchy="0" level="0" databaseField="1">
+      <sharedItems count="2" containsBlank="1" containsNonDate="0">
         <m/>
         <s v="Гагарина 18" u="1"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Имя заказчика" numFmtId="0">
-      <sharedItems containsNonDate="0" containsBlank="1" count="3">
+    <cacheField name="Имя заказчика" uniqueList="1" numFmtId="0" sqlType="0" hierarchy="0" level="0" databaseField="1">
+      <sharedItems count="3" containsBlank="1" containsNonDate="0">
         <m/>
         <s v="Сергей" u="1"/>
         <s v="Сергей Другой" u="1"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
 </pivotCacheDefinition>
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="5">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -263,56 +281,56 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица1" cacheId="64" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица1" cacheId="64" dataOnRows="0" dataCaption="Значения" showError="0" showMissing="1" updatedVersion="6" minRefreshableVersion="3" asteriskTotals="0" showItems="1" editData="0" disableFieldList="0" showCalcMbrs="1" visualTotals="1" showMultipleLabel="1" showDataDropDown="1" showDrill="1" printDrill="0" showMemberPropertyTips="1" showDataTips="1" enableWizard="1" enableDrill="1" enableFieldProperties="1" preserveFormatting="1" useAutoFormatting="1" pageWrap="0" pageOverThenDown="0" subtotalHiddenItems="0" rowGrandTotals="1" colGrandTotals="1" fieldPrintTitles="0" itemPrintTitles="1" mergeItem="0" showDropZones="1" createdVersion="6" indent="0" showEmptyRow="0" showEmptyCol="0" showHeaders="1" compact="1" outline="1" outlineData="1" compactData="1" published="0" gridDropZones="0" immersive="1" multipleFieldFilters="0" chartFormat="0" fieldListSortAscending="0" mdxSubqueries="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" r:id="rId1">
   <location ref="A4:B6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField axis="axisRow" showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1">
       <items count="3">
-        <item x="0"/>
-        <item m="1" x="1"/>
-        <item t="default"/>
+        <item t="data" sd="1" x="0"/>
+        <item t="data" sd="1" m="1" x="1"/>
+        <item t="default" sd="1"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField axis="axisRow" showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1">
       <items count="5">
-        <item m="1" x="2"/>
-        <item x="0"/>
-        <item m="1" x="3"/>
-        <item m="1" x="1"/>
-        <item t="default"/>
+        <item t="data" sd="1" m="1" x="2"/>
+        <item t="data" sd="1" x="0"/>
+        <item t="data" sd="1" m="1" x="3"/>
+        <item t="data" sd="1" m="1" x="1"/>
+        <item t="default" sd="1"/>
       </items>
     </pivotField>
-    <pivotField axis="axisCol" showAll="0">
+    <pivotField axis="axisCol" showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1">
       <items count="5">
-        <item m="1" x="2"/>
-        <item m="1" x="1"/>
-        <item m="1" x="3"/>
-        <item h="1" x="0"/>
-        <item t="default"/>
+        <item t="data" sd="1" m="1" x="2"/>
+        <item t="data" sd="1" m="1" x="1"/>
+        <item t="data" sd="1" m="1" x="3"/>
+        <item t="data" h="1" sd="1" x="0"/>
+        <item t="default" sd="1"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
+    <pivotField dataField="1" showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField axis="axisPage" showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1">
       <items count="3">
-        <item m="1" x="1"/>
-        <item x="0"/>
-        <item t="default"/>
+        <item t="data" sd="1" m="1" x="1"/>
+        <item t="data" sd="1" x="0"/>
+        <item t="default" sd="1"/>
       </items>
     </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField axis="axisRow" showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1">
       <items count="3">
-        <item m="1" x="1"/>
-        <item x="0"/>
-        <item t="default"/>
+        <item t="data" sd="1" m="1" x="1"/>
+        <item t="data" sd="1" x="0"/>
+        <item t="default" sd="1"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField axis="axisRow" showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1">
       <items count="4">
-        <item m="1" x="1"/>
-        <item x="0"/>
-        <item m="1" x="2"/>
-        <item t="default"/>
+        <item t="data" sd="1" m="1" x="1"/>
+        <item t="data" sd="1" x="0"/>
+        <item t="data" sd="1" m="1" x="2"/>
+        <item t="default" sd="1"/>
       </items>
     </pivotField>
   </pivotFields>
@@ -323,30 +341,25 @@
     <field x="0"/>
   </rowFields>
   <rowItems count="1">
-    <i t="grand">
-      <x/>
+    <i t="grand" r="0" i="0">
+      <x v="0"/>
     </i>
   </rowItems>
   <colFields count="1">
     <field x="2"/>
   </colFields>
   <colItems count="1">
-    <i t="grand">
-      <x/>
+    <i t="grand" r="0" i="0">
+      <x v="0"/>
     </i>
   </colItems>
   <pageFields count="1">
     <pageField fld="4" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="Количество по полю Цена" fld="3" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Количество по полю Цена" fld="3" subtotal="count" showDataAs="normal" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
 </pivotTableDefinition>
 </file>
 
@@ -634,51 +647,103 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>Номер телефона</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>Дата</t>
+        </is>
+      </c>
+      <c r="D1" s="6" t="inlineStr">
+        <is>
+          <t>Обед</t>
+        </is>
+      </c>
+      <c r="E1" s="6" t="inlineStr">
+        <is>
+          <t>Цена</t>
+        </is>
+      </c>
+      <c r="F1" s="6" t="inlineStr">
+        <is>
+          <t>Статус оплаты</t>
+        </is>
+      </c>
+      <c r="G1" s="6" t="inlineStr">
+        <is>
+          <t>День недели</t>
+        </is>
+      </c>
+      <c r="H1" s="6" t="inlineStr">
+        <is>
+          <t>Адрес доставки</t>
+        </is>
+      </c>
+      <c r="I1" s="6" t="inlineStr">
+        <is>
+          <t>Имя заказчика</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="5"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>79936228575</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>11.02.2025</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Комплексный обед</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>400</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Наличными</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Вторник</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>БЦ Румянцево</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Александр Чуев</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -686,61 +751,77 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Лист2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Лист2">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A2:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="6" width="11.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col width="25.28515625" customWidth="1" style="4" min="1" max="1"/>
+    <col width="20.85546875" customWidth="1" style="4" min="2" max="2"/>
+    <col width="11.85546875" bestFit="1" customWidth="1" style="4" min="3" max="3"/>
+    <col width="17.28515625" customWidth="1" style="4" min="4" max="4"/>
+    <col width="11.85546875" customWidth="1" style="4" min="5" max="6"/>
+    <col width="12" customWidth="1" style="4" min="7" max="7"/>
+    <col width="11.85546875" customWidth="1" style="4" min="8" max="8"/>
+    <col width="12" bestFit="1" customWidth="1" style="4" min="9" max="9"/>
+    <col width="11.85546875" customWidth="1" style="4" min="10" max="10"/>
+    <col width="12" bestFit="1" customWidth="1" style="4" min="11" max="11"/>
+    <col width="11.85546875" bestFit="1" customWidth="1" style="4" min="12" max="12"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Статус оплаты</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>(Все)</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Количество по полю Цена</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Названия столбцов</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Названия строк</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Общий итог</t>
+        </is>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="4"/>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Общий итог</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Заказы.xlsx
+++ b/Заказы.xlsx
@@ -1,26 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr codeName="ЭтаКнига"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12990" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Лист1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
-  <pivotCaches>
-    <pivotCache cacheId="64" r:id="rId3"/>
-  </pivotCaches>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -30,7 +27,14 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <b val="1"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
     </font>
     <font>
@@ -45,7 +49,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -55,16 +66,16 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -76,25 +87,43 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="1" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -168,210 +197,15 @@
 </styleSheet>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" refreshedBy="Мокрушин Сергей  Романович" refreshedDate="45694.64568935186" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="5" r:id="rId1">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:H1048576" sheet="Sheet1"/>
-  </cacheSource>
-  <cacheFields count="8">
-    <cacheField name="Номер телефона" uniqueList="1" numFmtId="0" sqlType="0" hierarchy="0" level="0" databaseField="1">
-      <sharedItems count="2" containsBlank="1" containsInteger="1" containsNonDate="0" containsNumber="1" containsString="0" minValue="79778690681" maxValue="79778690681">
-        <m/>
-        <n v="79778690681" u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Дата" uniqueList="1" numFmtId="0" sqlType="0" hierarchy="0" level="0" databaseField="1">
-      <sharedItems count="4" containsBlank="1" containsDate="1" containsMixedTypes="1" containsNonDate="0" minDate="2025-02-08T00:00:00" maxDate="2025-02-10T00:00:00">
-        <m/>
-        <d v="2025-02-09T00:00:00" u="1"/>
-        <s v="07.02.2025" u="1"/>
-        <d v="2025-02-08T00:00:00" u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Обед" uniqueList="1" numFmtId="0" sqlType="0" hierarchy="0" level="0" databaseField="1">
-      <sharedItems count="4" containsBlank="1" containsNonDate="0">
-        <m/>
-        <s v="Морс" u="1"/>
-        <s v="Комплексный обед" u="1"/>
-        <s v="Цезарь с курицей" u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Цена" uniqueList="1" numFmtId="0" sqlType="0" hierarchy="0" level="0" databaseField="1">
-      <sharedItems count="0" containsBlank="1" containsNonDate="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="Статус оплаты" uniqueList="1" numFmtId="0" sqlType="0" hierarchy="0" level="0" databaseField="1">
-      <sharedItems count="2" containsBlank="1" containsNonDate="0">
-        <m/>
-        <s v="Не оплачено" u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="День недели" uniqueList="1" numFmtId="0" sqlType="0" hierarchy="0" level="0" databaseField="1">
-      <sharedItems count="0" containsBlank="1" containsNonDate="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="Адрес доставки" uniqueList="1" numFmtId="0" sqlType="0" hierarchy="0" level="0" databaseField="1">
-      <sharedItems count="2" containsBlank="1" containsNonDate="0">
-        <m/>
-        <s v="Гагарина 18" u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Имя заказчика" uniqueList="1" numFmtId="0" sqlType="0" hierarchy="0" level="0" databaseField="1">
-      <sharedItems count="3" containsBlank="1" containsNonDate="0">
-        <m/>
-        <s v="Сергей" u="1"/>
-        <s v="Сергей Другой" u="1"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица1" cacheId="64" dataOnRows="0" dataCaption="Значения" showError="0" showMissing="1" updatedVersion="6" minRefreshableVersion="3" asteriskTotals="0" showItems="1" editData="0" disableFieldList="0" showCalcMbrs="1" visualTotals="1" showMultipleLabel="1" showDataDropDown="1" showDrill="1" printDrill="0" showMemberPropertyTips="1" showDataTips="1" enableWizard="1" enableDrill="1" enableFieldProperties="1" preserveFormatting="1" useAutoFormatting="1" pageWrap="0" pageOverThenDown="0" subtotalHiddenItems="0" rowGrandTotals="1" colGrandTotals="1" fieldPrintTitles="0" itemPrintTitles="1" mergeItem="0" showDropZones="1" createdVersion="6" indent="0" showEmptyRow="0" showEmptyCol="0" showHeaders="1" compact="1" outline="1" outlineData="1" compactData="1" published="0" gridDropZones="0" immersive="1" multipleFieldFilters="0" chartFormat="0" fieldListSortAscending="0" mdxSubqueries="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" r:id="rId1">
-  <location ref="A4:B6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="8">
-    <pivotField axis="axisRow" showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1">
-      <items count="3">
-        <item t="data" sd="1" x="0"/>
-        <item t="data" sd="1" m="1" x="1"/>
-        <item t="default" sd="1"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1">
-      <items count="5">
-        <item t="data" sd="1" m="1" x="2"/>
-        <item t="data" sd="1" x="0"/>
-        <item t="data" sd="1" m="1" x="3"/>
-        <item t="data" sd="1" m="1" x="1"/>
-        <item t="default" sd="1"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1">
-      <items count="5">
-        <item t="data" sd="1" m="1" x="2"/>
-        <item t="data" sd="1" m="1" x="1"/>
-        <item t="data" sd="1" m="1" x="3"/>
-        <item t="data" h="1" sd="1" x="0"/>
-        <item t="default" sd="1"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField axis="axisPage" showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1">
-      <items count="3">
-        <item t="data" sd="1" m="1" x="1"/>
-        <item t="data" sd="1" x="0"/>
-        <item t="default" sd="1"/>
-      </items>
-    </pivotField>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField axis="axisRow" showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1">
-      <items count="3">
-        <item t="data" sd="1" m="1" x="1"/>
-        <item t="data" sd="1" x="0"/>
-        <item t="default" sd="1"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1">
-      <items count="4">
-        <item t="data" sd="1" m="1" x="1"/>
-        <item t="data" sd="1" x="0"/>
-        <item t="data" sd="1" m="1" x="2"/>
-        <item t="default" sd="1"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="4">
-    <field x="1"/>
-    <field x="6"/>
-    <field x="7"/>
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="1">
-    <i t="grand" r="0" i="0">
-      <x v="0"/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="2"/>
-  </colFields>
-  <colItems count="1">
-    <i t="grand" r="0" i="0">
-      <x v="0"/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Количество по полю Цена" fld="3" subtotal="count" showDataAs="normal" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -409,69 +243,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -495,54 +331,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -552,7 +387,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -561,7 +396,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -570,7 +405,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -578,10 +413,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -610,7 +445,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -623,13 +458,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -652,7 +486,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -661,85 +495,120 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="6" t="inlineStr">
+      <c r="A1" s="10" t="inlineStr">
         <is>
           <t>Номер телефона</t>
         </is>
       </c>
-      <c r="C1" s="6" t="inlineStr">
+      <c r="B1" s="10" t="inlineStr">
         <is>
           <t>Дата</t>
         </is>
       </c>
-      <c r="D1" s="6" t="inlineStr">
+      <c r="C1" s="10" t="inlineStr">
         <is>
           <t>Обед</t>
         </is>
       </c>
-      <c r="E1" s="6" t="inlineStr">
+      <c r="D1" s="10" t="inlineStr">
         <is>
           <t>Цена</t>
         </is>
       </c>
-      <c r="F1" s="6" t="inlineStr">
+      <c r="E1" s="10" t="inlineStr">
         <is>
           <t>Статус оплаты</t>
         </is>
       </c>
-      <c r="G1" s="6" t="inlineStr">
+      <c r="F1" s="10" t="inlineStr">
         <is>
           <t>День недели</t>
         </is>
       </c>
-      <c r="H1" s="6" t="inlineStr">
+      <c r="G1" s="10" t="inlineStr">
         <is>
           <t>Адрес доставки</t>
         </is>
       </c>
-      <c r="I1" s="6" t="inlineStr">
+      <c r="H1" s="10" t="inlineStr">
         <is>
           <t>Имя заказчика</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="n">
-        <v>0</v>
+      <c r="A2" t="n">
+        <v>79160703062</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>11.02.2025</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Морс</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>50</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Картой</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Пятница</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>БЦ Румянцево</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Александр</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>79936228575</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>11.02.2025</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Комплексный обед</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Цезарь с курицей</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>400</v>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Наличными</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Картой</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>Вторник</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>БЦ Румянцево</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Александр Чуев</t>
         </is>
@@ -752,76 +621,75 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Лист2">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:B6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="25.28515625" customWidth="1" style="4" min="1" max="1"/>
-    <col width="20.85546875" customWidth="1" style="4" min="2" max="2"/>
-    <col width="11.85546875" bestFit="1" customWidth="1" style="4" min="3" max="3"/>
-    <col width="17.28515625" customWidth="1" style="4" min="4" max="4"/>
-    <col width="11.85546875" customWidth="1" style="4" min="5" max="6"/>
-    <col width="12" customWidth="1" style="4" min="7" max="7"/>
-    <col width="11.85546875" customWidth="1" style="4" min="8" max="8"/>
-    <col width="12" bestFit="1" customWidth="1" style="4" min="9" max="9"/>
-    <col width="11.85546875" customWidth="1" style="4" min="10" max="10"/>
-    <col width="12" bestFit="1" customWidth="1" style="4" min="11" max="11"/>
-    <col width="11.85546875" bestFit="1" customWidth="1" style="4" min="12" max="12"/>
+    <col width="25.29071428571428" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
+    <col width="20.86214285714286" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" s="4" t="n"/>
+      <c r="B1" s="5" t="n"/>
+    </row>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>Статус оплаты</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>(Все)</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+    <row r="3" ht="18.75" customHeight="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="5" t="n"/>
+    </row>
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>Количество по полю Цена</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>Названия столбцов</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+    <row r="5" ht="18.75" customHeight="1">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>Названия строк</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>Общий итог</t>
         </is>
       </c>
     </row>
-    <row r="6">
+    <row r="6" ht="18.75" customHeight="1">
       <c r="A6" s="3" t="inlineStr">
         <is>
           <t>Общий итог</t>
         </is>
       </c>
+      <c r="B6" s="5" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Заказы.xlsx
+++ b/Заказы.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+  <workbookPr codeName="ЭтаКнига"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12990" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Лист1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <pivotCaches>
+    <pivotCache cacheId="64" r:id="rId3"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -27,18 +30,8 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
+      <b val="1"/>
       <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,14 +42,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -66,64 +52,37 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="1" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -197,15 +156,210 @@
 </styleSheet>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" refreshedBy="Мокрушин Сергей  Романович" refreshedDate="45694.64568935186" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="5" r:id="rId1">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:H1048576" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="8">
+    <cacheField name="Номер телефона" uniqueList="1" numFmtId="0" sqlType="0" hierarchy="0" level="0" databaseField="1">
+      <sharedItems count="2" containsBlank="1" containsInteger="1" containsNonDate="0" containsNumber="1" containsString="0" minValue="79778690681" maxValue="79778690681">
+        <m/>
+        <n v="79778690681" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Дата" uniqueList="1" numFmtId="0" sqlType="0" hierarchy="0" level="0" databaseField="1">
+      <sharedItems count="4" containsBlank="1" containsDate="1" containsMixedTypes="1" containsNonDate="0" minDate="2025-02-08T00:00:00" maxDate="2025-02-10T00:00:00">
+        <m/>
+        <d v="2025-02-09T00:00:00" u="1"/>
+        <s v="07.02.2025" u="1"/>
+        <d v="2025-02-08T00:00:00" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Обед" uniqueList="1" numFmtId="0" sqlType="0" hierarchy="0" level="0" databaseField="1">
+      <sharedItems count="4" containsBlank="1" containsNonDate="0">
+        <m/>
+        <s v="Морс" u="1"/>
+        <s v="Комплексный обед" u="1"/>
+        <s v="Цезарь с курицей" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Цена" uniqueList="1" numFmtId="0" sqlType="0" hierarchy="0" level="0" databaseField="1">
+      <sharedItems count="0" containsBlank="1" containsNonDate="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="Статус оплаты" uniqueList="1" numFmtId="0" sqlType="0" hierarchy="0" level="0" databaseField="1">
+      <sharedItems count="2" containsBlank="1" containsNonDate="0">
+        <m/>
+        <s v="Не оплачено" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="День недели" uniqueList="1" numFmtId="0" sqlType="0" hierarchy="0" level="0" databaseField="1">
+      <sharedItems count="0" containsBlank="1" containsNonDate="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="Адрес доставки" uniqueList="1" numFmtId="0" sqlType="0" hierarchy="0" level="0" databaseField="1">
+      <sharedItems count="2" containsBlank="1" containsNonDate="0">
+        <m/>
+        <s v="Гагарина 18" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Имя заказчика" uniqueList="1" numFmtId="0" sqlType="0" hierarchy="0" level="0" databaseField="1">
+      <sharedItems count="3" containsBlank="1" containsNonDate="0">
+        <m/>
+        <s v="Сергей" u="1"/>
+        <s v="Сергей Другой" u="1"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица1" cacheId="64" dataOnRows="0" dataCaption="Значения" showError="0" showMissing="1" updatedVersion="6" minRefreshableVersion="3" asteriskTotals="0" showItems="1" editData="0" disableFieldList="0" showCalcMbrs="1" visualTotals="1" showMultipleLabel="1" showDataDropDown="1" showDrill="1" printDrill="0" showMemberPropertyTips="1" showDataTips="1" enableWizard="1" enableDrill="1" enableFieldProperties="1" preserveFormatting="1" useAutoFormatting="1" pageWrap="0" pageOverThenDown="0" subtotalHiddenItems="0" rowGrandTotals="1" colGrandTotals="1" fieldPrintTitles="0" itemPrintTitles="1" mergeItem="0" showDropZones="1" createdVersion="6" indent="0" showEmptyRow="0" showEmptyCol="0" showHeaders="1" compact="1" outline="1" outlineData="1" compactData="1" published="0" gridDropZones="0" immersive="1" multipleFieldFilters="0" chartFormat="0" fieldListSortAscending="0" mdxSubqueries="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" r:id="rId1">
+  <location ref="A4:B6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisRow" showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1">
+      <items count="3">
+        <item t="data" sd="1" x="0"/>
+        <item t="data" sd="1" m="1" x="1"/>
+        <item t="default" sd="1"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1">
+      <items count="5">
+        <item t="data" sd="1" m="1" x="2"/>
+        <item t="data" sd="1" x="0"/>
+        <item t="data" sd="1" m="1" x="3"/>
+        <item t="data" sd="1" m="1" x="1"/>
+        <item t="default" sd="1"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1">
+      <items count="5">
+        <item t="data" sd="1" m="1" x="2"/>
+        <item t="data" sd="1" m="1" x="1"/>
+        <item t="data" sd="1" m="1" x="3"/>
+        <item t="data" h="1" sd="1" x="0"/>
+        <item t="default" sd="1"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField axis="axisPage" showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1">
+      <items count="3">
+        <item t="data" sd="1" m="1" x="1"/>
+        <item t="data" sd="1" x="0"/>
+        <item t="default" sd="1"/>
+      </items>
+    </pivotField>
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField axis="axisRow" showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1">
+      <items count="3">
+        <item t="data" sd="1" m="1" x="1"/>
+        <item t="data" sd="1" x="0"/>
+        <item t="default" sd="1"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1">
+      <items count="4">
+        <item t="data" sd="1" m="1" x="1"/>
+        <item t="data" sd="1" x="0"/>
+        <item t="data" sd="1" m="1" x="2"/>
+        <item t="default" sd="1"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="4">
+    <field x="1"/>
+    <field x="6"/>
+    <field x="7"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="1">
+    <i t="grand" r="0" i="0">
+      <x v="0"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="1">
+    <i t="grand" r="0" i="0">
+      <x v="0"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Количество по полю Цена" fld="3" subtotal="count" showDataAs="normal" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -243,71 +397,69 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -331,53 +483,54 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
+                <a:shade val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
+              <a:shade val="95000"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -387,7 +540,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -396,7 +549,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -405,7 +558,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -413,10 +566,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -445,7 +598,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
+                <a:shade val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -458,12 +611,13 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
+                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -482,137 +636,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr codeName="Лист1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
+    <col width="10.140625" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Номер телефона</t>
         </is>
       </c>
-      <c r="B1" s="10" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Дата</t>
         </is>
       </c>
-      <c r="C1" s="10" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Обед</t>
         </is>
       </c>
-      <c r="D1" s="10" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Цена</t>
         </is>
       </c>
-      <c r="E1" s="10" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Статус оплаты</t>
         </is>
       </c>
-      <c r="F1" s="10" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>День недели</t>
         </is>
       </c>
-      <c r="G1" s="10" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Адрес доставки</t>
         </is>
       </c>
-      <c r="H1" s="10" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Имя заказчика</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>79160703062</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>11.02.2025</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Морс</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>50</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Картой</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Пятница</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>БЦ Румянцево</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Александр</t>
-        </is>
-      </c>
+    <row r="4">
+      <c r="B4" s="5" t="n"/>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>79936228575</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>11.02.2025</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Цезарь с курицей</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>400</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Картой</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Вторник</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>БЦ Румянцево</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Александр Чуев</t>
-        </is>
-      </c>
+    <row r="5">
+      <c r="B5" s="5" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -621,75 +707,76 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
+  <sheetPr codeName="Лист2">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A2:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="25.29071428571428" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
-    <col width="20.86214285714286" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
+    <col width="25.28515625" customWidth="1" style="4" min="1" max="1"/>
+    <col width="20.85546875" customWidth="1" style="4" min="2" max="2"/>
+    <col width="11.85546875" bestFit="1" customWidth="1" style="4" min="3" max="3"/>
+    <col width="17.28515625" customWidth="1" style="4" min="4" max="4"/>
+    <col width="11.85546875" customWidth="1" style="4" min="5" max="6"/>
+    <col width="12" customWidth="1" style="4" min="7" max="7"/>
+    <col width="11.85546875" customWidth="1" style="4" min="8" max="8"/>
+    <col width="12" bestFit="1" customWidth="1" style="4" min="9" max="9"/>
+    <col width="11.85546875" customWidth="1" style="4" min="10" max="10"/>
+    <col width="12" bestFit="1" customWidth="1" style="4" min="11" max="11"/>
+    <col width="11.85546875" bestFit="1" customWidth="1" style="4" min="12" max="12"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="4" t="n"/>
-      <c r="B1" s="5" t="n"/>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Статус оплаты</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>(Все)</t>
+        </is>
+      </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" s="4" t="inlineStr">
-        <is>
-          <t>Статус оплаты</t>
-        </is>
-      </c>
-      <c r="B2" s="5" t="inlineStr">
-        <is>
-          <t>(Все)</t>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Количество по полю Цена</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Названия столбцов</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="4" t="n"/>
-      <c r="B3" s="5" t="n"/>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Названия строк</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Общий итог</t>
+        </is>
+      </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" s="4" t="inlineStr">
-        <is>
-          <t>Количество по полю Цена</t>
-        </is>
-      </c>
-      <c r="B4" s="5" t="inlineStr">
-        <is>
-          <t>Названия столбцов</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>Названия строк</t>
-        </is>
-      </c>
-      <c r="B5" s="5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>Общий итог</t>
         </is>
       </c>
-    </row>
-    <row r="6" ht="18.75" customHeight="1">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>Общий итог</t>
-        </is>
-      </c>
-      <c r="B6" s="5" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>